--- a/CHAPTER6/doc/解説書xlsx.xlsx
+++ b/CHAPTER6/doc/解説書xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WS\学習\ゲームで学ぶPython!\CHAPTER6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B67C68-F7E3-4FA7-B006-2F7A7B2DCAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA9C9F-7499-4CB5-86EC-FBDA3A61D1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ECF537B8-808F-40EA-B960-E44AB43C47CD}"/>
   </bookViews>

--- a/CHAPTER6/doc/解説書xlsx.xlsx
+++ b/CHAPTER6/doc/解説書xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WS\学習\ゲームで学ぶPython!\CHAPTER6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A502E6-1D76-4C31-BEC0-8A85B58B153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94286E07-1C90-4A9D-9F74-CCAC22AC92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{ECF537B8-808F-40EA-B960-E44AB43C47CD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="128">
   <si>
     <t>更新処理</t>
     <rPh sb="0" eb="4">
@@ -1541,17 +1541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
-➡特殊アイテム①：追加</t>
-    <rPh sb="2" eb="4">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2669,333 +2658,6 @@
   </si>
   <si>
     <r>
-      <t>①体当たりで
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>削除</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ITEM追加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>➡
-───────</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>タイア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>①体当たりで
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>削除</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・物資補充
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>───────</t>
-    </r>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ブッシ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">➡自機①：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　・削除
-　・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>爆発➡
-──────────
-➡弾_自機①：
-　・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>削除</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-──────────
-➡タイトル画面⑤：
-　・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">削除
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　・爆発➡</t>
-    </r>
-    <rPh sb="29" eb="30">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">➡プレイ画面⑤：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">削除
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　・爆発➡</t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バクハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【攻撃／体当たり】
-① シールドを減らす
-②  シールド切れで、
-　・爆発➡
-　・削除
-　・得点を増やす
-【クリティカルヒット】
-① シールドをゼロにする
-②  シールド切れなので、
-　・爆発➡
-　・削除</t>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイア</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>トクテン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -3212,7 +2874,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>・両方の弾を消滅する</t>
+      <t>・両方の弾を爆破する</t>
     </r>
     <rPh sb="1" eb="2">
       <t>タマ</t>
@@ -3260,21 +2922,74 @@
       <t>リョウホウ</t>
     </rPh>
     <rPh sb="86" eb="88">
+      <t>バクハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. 機雷に命中：
+2. 敵機･ボスに命中：
+3. 弾_敵に命中：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　① 小さく爆発する
+　② 貫通弾：消滅しない
+　③ 通常弾：消滅する</t>
+    </r>
+    <rPh sb="37" eb="38">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンツウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2. 敵機･ボス,弾_敵と衝突：
+    <rPh sb="61" eb="63">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. 機雷と衝突：
 </t>
     </r>
     <r>
@@ -3285,11 +3000,35 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">　① シールドをゼロにする
+　② 爆発音を鳴らす
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 敵機･ボス,弾_敵と衝突：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">　① </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FF0000CC"/>
         <rFont val="游ゴシック"/>
@@ -3308,34 +3047,186 @@
         <scheme val="minor"/>
       </rPr>
       <t>を参照し、
-　　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ダメージ量を調整
+　　ダメージ量を調整
 　② シールドを減らす
-　③ シールド切れで、
-　　・爆発➡</t>
-    </r>
-    <rPh sb="24" eb="25">
+　③ 爆発音を鳴らす</t>
+    </r>
+    <rPh sb="27" eb="30">
+      <t>バクハツオン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
       <t>リョウ</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="63" eb="65">
       <t>チョウセイ</t>
     </rPh>
-    <rPh sb="60" eb="61">
-      <t>ギ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 機雷に命中：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　① シールドを空にする
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. 敵機･ボスに命中：
+2. 敵機･ボス,弾_敵と衝突：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　① シールドを減らす
+②  シールド切れで、
+ ・爆発➡
+ ・消滅
+ ・得点を加算する
+③  爆発音を鳴らす</t>
+    </r>
+    <rPh sb="18" eb="19">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ショウメツ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>バクハツオン</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. 機雷に命中：
+3. 弾_敵に命中：
+2. 敵機･ボス,弾_敵と衝突：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　① 小さく爆発する
+　③ 通常弾：消滅する</t>
+    </r>
+    <rPh sb="41" eb="42">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
       <t>バクハツ</t>
     </rPh>
+    <rPh sb="52" eb="54">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.アイテムと衝突：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ・ITEMを追加</t>
+    </r>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 機雷に命中：
+ ・爆発➡
+ ・消滅
+3.アイテムと衝突：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ・消滅する</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4652,12 +4543,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5345,9 +5230,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5360,18 +5242,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5397,16 +5273,38 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6013,290 +5911,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="235" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="224" t="s">
+      <c r="E2" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="225" t="s">
+      <c r="F2" s="223" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="227" t="s">
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="227"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="230" t="s">
+      <c r="E3" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="230" t="s">
+      <c r="F3" s="228" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="231" t="s">
+      <c r="G3" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="232"/>
-      <c r="I3" s="231" t="s">
+      <c r="H3" s="230"/>
+      <c r="I3" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="232"/>
-      <c r="K3" s="233" t="s">
+      <c r="J3" s="230"/>
+      <c r="K3" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="234" t="s">
+      <c r="L3" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="235" t="s">
+      <c r="M3" s="233" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="236" t="s">
+      <c r="N3" s="234" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="253" t="s">
+      <c r="B4" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="265" t="s">
+      <c r="D4" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="265" t="s">
+      <c r="E4" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="266" t="s">
+      <c r="F4" s="264" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="267" t="s">
+      <c r="G4" s="265" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="268" t="s">
+      <c r="H4" s="266" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="267" t="s">
+      <c r="I4" s="265" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="268" t="s">
+      <c r="J4" s="266" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="269" t="s">
+      <c r="K4" s="267" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="270" t="s">
+      <c r="L4" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="271" t="s">
+      <c r="M4" s="269" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="272" t="s">
+      <c r="N4" s="270" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="254"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="276"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="185"/>
+      <c r="B5" s="252"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="183"/>
     </row>
     <row r="6" spans="1:14" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="186" t="s">
+      <c r="G7" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="187"/>
-      <c r="I7" s="186" t="s">
+      <c r="H7" s="185"/>
+      <c r="I7" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="187"/>
-      <c r="K7" s="141" t="s">
+      <c r="J7" s="185"/>
+      <c r="K7" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="137" t="s">
+      <c r="L7" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="142" t="s">
+      <c r="N7" s="140" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="130"/>
-      <c r="B8" s="126" t="s">
+      <c r="A8" s="128"/>
+      <c r="B8" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="139" t="s">
+      <c r="H8" s="138"/>
+      <c r="I8" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="140"/>
-      <c r="K8" s="141" t="s">
+      <c r="J8" s="138"/>
+      <c r="K8" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="137" t="s">
+      <c r="L8" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="138" t="s">
+      <c r="M8" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="142" t="s">
+      <c r="N8" s="140" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="130"/>
-      <c r="B9" s="127" t="s">
+      <c r="A9" s="128"/>
+      <c r="B9" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="188" t="s">
+      <c r="G9" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="188" t="s">
+      <c r="H9" s="187"/>
+      <c r="I9" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="191"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="189"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="130"/>
-      <c r="B10" s="128" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192" t="s">
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="263" t="s">
+      <c r="G10" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="264"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="194"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="192"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="131"/>
-      <c r="B11" s="255" t="s">
+      <c r="A11" s="129"/>
+      <c r="B11" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="256" t="s">
+      <c r="D11" s="254" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256" t="s">
+      <c r="E11" s="254"/>
+      <c r="F11" s="254" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="257" t="s">
+      <c r="G11" s="255" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="258"/>
-      <c r="I11" s="257" t="s">
+      <c r="H11" s="256"/>
+      <c r="I11" s="255" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="258"/>
-      <c r="K11" s="259" t="s">
+      <c r="J11" s="256"/>
+      <c r="K11" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="260" t="s">
+      <c r="L11" s="258" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="261" t="s">
+      <c r="M11" s="259" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="262" t="s">
+      <c r="N11" s="260" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D13" s="285" t="s">
+      <c r="D13" s="283" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="280"/>
+      <c r="E13" s="278"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D14" s="281" t="s">
+      <c r="D14" s="279" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="282"/>
+      <c r="E14" s="280"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D15" s="283" t="s">
+      <c r="D15" s="281" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="284"/>
+      <c r="E15" s="282"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E18" s="18"/>
@@ -6333,7 +6231,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D7:N11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6358,72 +6256,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="236" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="174" t="s">
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="175"/>
-      <c r="O2" s="176"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="174"/>
     </row>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.4">
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="172" t="s">
+      <c r="E3" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="177" t="s">
+      <c r="F3" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="198" t="s">
+      <c r="G3" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="199" t="s">
+      <c r="H3" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="200"/>
-      <c r="J3" s="199" t="s">
+      <c r="I3" s="198"/>
+      <c r="J3" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="201"/>
-      <c r="L3" s="202" t="s">
+      <c r="K3" s="199"/>
+      <c r="L3" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="178" t="s">
+      <c r="M3" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="179" t="s">
+      <c r="N3" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="180" t="s">
+      <c r="O3" s="178" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="251" t="s">
+      <c r="C4" s="249" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="48" t="s">
@@ -6432,7 +6330,7 @@
       <c r="F4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="162" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="42" t="s">
@@ -6447,205 +6345,205 @@
       <c r="K4" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="170" t="s">
+      <c r="L4" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="250" t="s">
+      <c r="M4" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="169" t="s">
+      <c r="O4" s="167" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="252"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
+      <c r="C5" s="250"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="26"/>
       <c r="H5" s="45"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="121"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
     </row>
     <row r="6" spans="1:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="139" t="s">
+      <c r="J7" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="140"/>
-      <c r="L7" s="141" t="s">
+      <c r="K7" s="138"/>
+      <c r="L7" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="137" t="s">
+      <c r="M7" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="138" t="s">
+      <c r="N7" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="142" t="s">
+      <c r="O7" s="140" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="135"/>
-      <c r="C8" s="111" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="109" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="49"/>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="144" t="s">
+      <c r="H8" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="145" t="s">
+      <c r="I8" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="146" t="s">
+      <c r="J8" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="147"/>
+      <c r="K8" s="145"/>
       <c r="L8" s="53"/>
       <c r="M8" s="52"/>
       <c r="N8" s="46"/>
       <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="135"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="109" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="144" t="s">
+      <c r="H9" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="153" t="s">
+      <c r="I9" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="53"/>
       <c r="M9" s="52"/>
       <c r="N9" s="46"/>
       <c r="O9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="150"/>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="148"/>
+      <c r="C10" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="148" t="s">
+      <c r="H10" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="149" t="s">
+      <c r="I10" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="151" t="s">
+      <c r="J10" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="152"/>
-      <c r="L10" s="108" t="s">
+      <c r="K10" s="150"/>
+      <c r="L10" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="109" t="s">
+      <c r="N10" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="110" t="s">
+      <c r="O10" s="108" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E12" s="285" t="s">
+      <c r="E12" s="283" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="286"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="286"/>
-      <c r="I12" s="280"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="284"/>
+      <c r="H12" s="284"/>
+      <c r="I12" s="278"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E13" s="281" t="s">
+      <c r="E13" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="282"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="280"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E14" s="281" t="s">
+      <c r="E14" s="279" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="287"/>
-      <c r="G14" s="287"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="282"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="285"/>
+      <c r="H14" s="285"/>
+      <c r="I14" s="280"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E15" s="281" t="s">
+      <c r="E15" s="279" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="282"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="285"/>
+      <c r="H15" s="285"/>
+      <c r="I15" s="280"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="E16" s="283" t="s">
+      <c r="E16" s="281" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="288"/>
-      <c r="G16" s="288"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="284"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="286"/>
+      <c r="I16" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6699,73 +6597,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="236"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="239" t="s">
+      <c r="E2" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="240"/>
-      <c r="G2" s="224" t="s">
+      <c r="F2" s="238"/>
+      <c r="G2" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="239" t="s">
+      <c r="H2" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="227" t="s">
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="227"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="242" t="s">
+      <c r="E3" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="243"/>
-      <c r="G3" s="244" t="s">
+      <c r="F3" s="241"/>
+      <c r="G3" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="245" t="s">
+      <c r="H3" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="246" t="s">
+      <c r="I3" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="246"/>
-      <c r="K3" s="247" t="s">
+      <c r="J3" s="244"/>
+      <c r="K3" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="245" t="s">
+      <c r="L3" s="243" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="248" t="s">
+      <c r="M3" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="249" t="s">
+      <c r="N3" s="247" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="249" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="48" t="s">
@@ -6792,108 +6690,108 @@
       <c r="K4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="167" t="s">
+      <c r="L4" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="168" t="s">
+      <c r="M4" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="169" t="s">
+      <c r="N4" s="167" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="252"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="121"/>
+      <c r="B5" s="250"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="119"/>
     </row>
     <row r="6" spans="1:14" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="157" t="s">
+      <c r="E7" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="158"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="159" t="s">
+      <c r="F7" s="156"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="160" t="s">
+      <c r="I7" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="161" t="s">
+      <c r="J7" s="158"/>
+      <c r="K7" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="159" t="s">
+      <c r="L7" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="162" t="s">
+      <c r="M7" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="161" t="s">
+      <c r="N7" s="159" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D9" s="285" t="s">
+      <c r="D9" s="283" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="286"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="286"/>
-      <c r="H9" s="280"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="278"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D10" s="281" t="s">
+      <c r="D10" s="279" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="282"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="285"/>
+      <c r="H10" s="280"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D11" s="281" t="s">
+      <c r="D11" s="279" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="282"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="280"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D12" s="281" t="s">
+      <c r="D12" s="279" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="282"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="280"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="D13" s="283" t="s">
+      <c r="D13" s="281" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="284"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="286"/>
+      <c r="H13" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6929,10 +6827,10 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="15" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6952,7 +6850,8 @@
     <col min="21" max="22" width="28.375" customWidth="1"/>
     <col min="23" max="24" width="24.75" customWidth="1"/>
     <col min="25" max="25" width="21.25" customWidth="1"/>
-    <col min="26" max="27" width="15.25" customWidth="1"/>
+    <col min="26" max="26" width="18.375" customWidth="1"/>
+    <col min="27" max="27" width="15.25" customWidth="1"/>
     <col min="28" max="28" width="19.875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2" customWidth="1"/>
@@ -7034,23 +6933,23 @@
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="32"/>
-      <c r="P2" s="301" t="s">
+      <c r="P2" s="299" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="302" t="s">
+      <c r="Q2" s="300" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="303" t="s">
+      <c r="R2" s="301" t="s">
         <v>66</v>
       </c>
       <c r="S2" s="30" t="s">
         <v>55</v>
       </c>
       <c r="T2" s="32"/>
-      <c r="U2" s="124" t="s">
+      <c r="U2" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="125" t="s">
+      <c r="V2" s="123" t="s">
         <v>59</v>
       </c>
       <c r="W2" s="30" t="s">
@@ -7065,7 +6964,7 @@
       <c r="AB2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="123" t="s">
+      <c r="AC2" s="121" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7074,13 +6973,13 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="214"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="212"/>
       <c r="M3" s="58" t="s">
         <v>92</v>
       </c>
@@ -7090,17 +6989,17 @@
       <c r="O3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="299"/>
-      <c r="R3" s="300"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="298"/>
       <c r="S3" s="55" t="s">
         <v>40</v>
       </c>
       <c r="T3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="297"/>
-      <c r="V3" s="296"/>
+      <c r="U3" s="295"/>
+      <c r="V3" s="294"/>
       <c r="W3" s="55" t="s">
         <v>5</v>
       </c>
@@ -7135,14 +7034,14 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="189" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="204" t="s">
+      <c r="A5" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="321"/>
-      <c r="D5" s="317"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="312"/>
       <c r="E5" s="18"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
@@ -7165,61 +7064,61 @@
       <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="215" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="216"/>
-      <c r="O5" s="217" t="s">
+      <c r="M5" s="213" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="214"/>
+      <c r="O5" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="218" t="s">
+      <c r="P5" s="216" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="Q5" s="219" t="s">
+      <c r="R5" s="215" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="218" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="219"/>
+      <c r="U5" s="310" t="s">
+        <v>115</v>
+      </c>
+      <c r="V5" s="311"/>
+      <c r="W5" s="304" t="s">
+        <v>114</v>
+      </c>
+      <c r="X5" s="305" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="305" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="220" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="304" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="217" t="s">
-        <v>111</v>
-      </c>
-      <c r="S5" s="220" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" s="221"/>
-      <c r="U5" s="314" t="s">
-        <v>116</v>
-      </c>
-      <c r="V5" s="315"/>
-      <c r="W5" s="306" t="s">
-        <v>115</v>
-      </c>
-      <c r="X5" s="307" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y5" s="307" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z5" s="222" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA5" s="221"/>
-      <c r="AB5" s="306" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC5" s="223" t="s">
+      <c r="AC5" s="221" t="s">
         <v>95</v>
       </c>
       <c r="AD5" s="18"/>
     </row>
     <row r="6" spans="1:30" ht="240" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="206"/>
-      <c r="B6" s="207" t="s">
+      <c r="A6" s="204"/>
+      <c r="B6" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="325" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="326" t="s">
-        <v>126</v>
+      <c r="C6" s="322" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="323" t="s">
+        <v>120</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="5"/>
@@ -7233,8 +7132,8 @@
         <v>22</v>
       </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="308" t="s">
-        <v>109</v>
+      <c r="M6" s="321" t="s">
+        <v>126</v>
       </c>
       <c r="N6" s="19" t="s">
         <v>23</v>
@@ -7244,39 +7143,37 @@
       <c r="Q6" s="71"/>
       <c r="R6" s="72"/>
       <c r="S6" s="73" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="T6" s="74"/>
-      <c r="U6" s="313" t="s">
+      <c r="U6" s="320" t="s">
+        <v>122</v>
+      </c>
+      <c r="V6" s="324" t="s">
+        <v>125</v>
+      </c>
+      <c r="W6" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="V6" s="316" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="X6" s="324"/>
+      <c r="X6" s="319"/>
       <c r="Y6" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z6" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA6" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="80"/>
+        <v>109</v>
+      </c>
+      <c r="Z6" s="325" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA6" s="326"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="78"/>
       <c r="AD6" s="18"/>
     </row>
     <row r="7" spans="1:30" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207" t="s">
+      <c r="A7" s="204"/>
+      <c r="B7" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="322"/>
-      <c r="D7" s="318"/>
+      <c r="C7" s="317"/>
+      <c r="D7" s="313"/>
       <c r="E7" s="18"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
@@ -7295,30 +7192,30 @@
       <c r="P7" s="70"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="72"/>
-      <c r="S7" s="81" t="s">
+      <c r="S7" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="T7" s="82"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="85" t="s">
+      <c r="T7" s="80"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="87"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="85"/>
       <c r="Z7" s="71"/>
       <c r="AA7" s="72"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
       <c r="AD7" s="18"/>
     </row>
     <row r="8" spans="1:30" ht="117" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="206"/>
-      <c r="B8" s="208" t="s">
+      <c r="A8" s="204"/>
+      <c r="B8" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="323"/>
-      <c r="D8" s="319"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="314"/>
       <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
         <v>23</v>
@@ -7333,58 +7230,58 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="312" t="s">
+      <c r="M8" s="309" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="311" t="s">
+      <c r="O8" s="308" t="s">
         <v>23</v>
       </c>
       <c r="P8" s="70"/>
       <c r="Q8" s="71"/>
       <c r="R8" s="72"/>
-      <c r="S8" s="310" t="s">
+      <c r="S8" s="307" t="s">
+        <v>117</v>
+      </c>
+      <c r="T8" s="302"/>
+      <c r="U8" s="306" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="304"/>
-      <c r="U8" s="309" t="s">
+      <c r="V8" s="302"/>
+      <c r="W8" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z8" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA8" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB8" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="V8" s="304"/>
-      <c r="W8" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z8" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA8" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB8" s="305" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC8" s="90" t="s">
+      <c r="AC8" s="88" t="s">
         <v>43</v>
       </c>
       <c r="AD8" s="18"/>
     </row>
     <row r="9" spans="1:30" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="208"/>
+      <c r="C9" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="320" t="s">
+      <c r="D9" s="315" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="18"/>
@@ -7405,39 +7302,39 @@
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="92" t="s">
+      <c r="O9" s="89"/>
+      <c r="P9" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="Q9" s="93" t="s">
+      <c r="Q9" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="R9" s="94" t="s">
+      <c r="R9" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="95" t="s">
+      <c r="S9" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="96"/>
-      <c r="U9" s="97" t="s">
+      <c r="T9" s="94"/>
+      <c r="U9" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="98" t="s">
+      <c r="V9" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="W9" s="95" t="s">
+      <c r="W9" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="101" t="s">
+      <c r="X9" s="97"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="102" t="s">
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="AC9" s="103" t="s">
+      <c r="AC9" s="101" t="s">
         <v>102</v>
       </c>
       <c r="AD9" s="18"/>
@@ -7458,21 +7355,21 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="30" x14ac:dyDescent="0.4">
-      <c r="A11" s="289" t="s">
+      <c r="A11" s="287" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="291"/>
-      <c r="G11" s="291"/>
-      <c r="H11" s="291"/>
-      <c r="I11" s="291"/>
-      <c r="J11" s="291"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="290"/>
-      <c r="N11" s="290"/>
-      <c r="O11" s="277"/>
+      <c r="B11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="289"/>
+      <c r="G11" s="289"/>
+      <c r="H11" s="289"/>
+      <c r="I11" s="289"/>
+      <c r="J11" s="289"/>
+      <c r="K11" s="289"/>
+      <c r="L11" s="289"/>
+      <c r="M11" s="288"/>
+      <c r="N11" s="288"/>
+      <c r="O11" s="275"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -7481,7 +7378,7 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="292"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="66" t="s">
         <v>31</v>
       </c>
@@ -7497,12 +7394,12 @@
       <c r="L12" s="66"/>
       <c r="M12" s="66"/>
       <c r="N12" s="66"/>
-      <c r="O12" s="278"/>
+      <c r="O12" s="276"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="292"/>
+      <c r="A13" s="290"/>
       <c r="B13" s="67" t="s">
         <v>32</v>
       </c>
@@ -7518,12 +7415,12 @@
       <c r="L13" s="67"/>
       <c r="M13" s="67"/>
       <c r="N13" s="67"/>
-      <c r="O13" s="278"/>
+      <c r="O13" s="276"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="292"/>
+      <c r="A14" s="290"/>
       <c r="B14" s="68" t="s">
         <v>33</v>
       </c>
@@ -7539,24 +7436,24 @@
       <c r="L14" s="68"/>
       <c r="M14" s="68"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="278"/>
+      <c r="O14" s="276"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A15" s="293"/>
-      <c r="B15" s="294"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="295"/>
-      <c r="J15" s="295"/>
-      <c r="K15" s="295"/>
-      <c r="L15" s="295"/>
-      <c r="M15" s="294"/>
-      <c r="N15" s="294"/>
-      <c r="O15" s="279"/>
+      <c r="A15" s="291"/>
+      <c r="B15" s="292"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="293"/>
+      <c r="L15" s="293"/>
+      <c r="M15" s="292"/>
+      <c r="N15" s="292"/>
+      <c r="O15" s="277"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -7580,7 +7477,8 @@
       <c r="AB16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="U1:V1"/>
@@ -7618,22 +7516,22 @@
     <mergeCell ref="F1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="S5:U7 F5:R9 U8 S8:S9 U9:W9 Z9 AB9:AC9 W5:Z5 AB5:AC5 W6:AC8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="S5:U7 F5:R9 U8 S8:S9 U9:W9 Z9 AB9:AC9 W7:AC8 W5:Z6 AB5:AC6">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D9">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D9">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
